--- a/data/input/participation_agreement_status.xlsx
+++ b/data/input/participation_agreement_status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RobertSurridge\Projects\misc\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RobertSurridge\Projects\reach_pa_upload\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F378CC3F-6CFC-4001-961D-A728AF6BF83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E82E4F-5C75-4FDA-99FD-6F943AD84857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="210">
   <si>
     <t>060160925022002</t>
   </si>
@@ -715,6 +715,36 @@
   </si>
   <si>
     <t>050160280022003</t>
+  </si>
+  <si>
+    <t>410570070262006</t>
+  </si>
+  <si>
+    <t>410570070262011</t>
+  </si>
+  <si>
+    <t>410570070262004</t>
+  </si>
+  <si>
+    <t>410570070262007</t>
+  </si>
+  <si>
+    <t>410570070262009</t>
+  </si>
+  <si>
+    <t>410570070262008</t>
+  </si>
+  <si>
+    <t>410570070262005</t>
+  </si>
+  <si>
+    <t>410570070262010</t>
+  </si>
+  <si>
+    <t>410570070262003</t>
+  </si>
+  <si>
+    <t>410570070262012</t>
   </si>
 </sst>
 </file>
@@ -1026,11 +1056,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B209"/>
+  <dimension ref="A1:B218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A209" sqref="A209"/>
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2704,8 +2734,85 @@
         <v>45638.604039351849</v>
       </c>
     </row>
-    <row r="209" spans="2:2" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="3"/>
+    <row r="209" spans="1:2" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B209" s="5">
+        <v>45645.681111111109</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B210" s="5">
+        <v>45645.681458333333</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B211" s="5">
+        <v>45645.682025462964</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B212" s="5">
+        <v>45645.682974537034</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B213" s="5">
+        <v>45645.683263888888</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B214" s="5">
+        <v>45645.683483796296</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B215" s="5">
+        <v>45645.683738425927</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B216" s="5">
+        <v>45645.684016203704</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B217" s="5">
+        <v>45645.684282407405</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B218" s="5">
+        <v>45645.684513888889</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G209" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/data/input/participation_agreement_status.xlsx
+++ b/data/input/participation_agreement_status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RobertSurridge\Projects\reach_pa_upload\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E82E4F-5C75-4FDA-99FD-6F943AD84857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EDE03C-34AA-4B5F-A1BD-C5C771F1F7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="215">
   <si>
     <t>060160925022002</t>
   </si>
@@ -745,6 +745,21 @@
   </si>
   <si>
     <t>410570070262012</t>
+  </si>
+  <si>
+    <t>500820600260003</t>
+  </si>
+  <si>
+    <t>350590070262001</t>
+  </si>
+  <si>
+    <t>470980050262007</t>
+  </si>
+  <si>
+    <t>070161590022006</t>
+  </si>
+  <si>
+    <t>280000000009301</t>
   </si>
 </sst>
 </file>
@@ -1056,11 +1071,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B218"/>
+  <dimension ref="A1:B223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D212" sqref="D212"/>
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2814,6 +2829,46 @@
         <v>45645.684513888889</v>
       </c>
     </row>
+    <row r="219" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B219" s="5">
+        <v>45660.56486111111</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B220" s="5">
+        <v>45666.479641203703</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B221" s="5">
+        <v>45666.51284722222</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B222" s="5">
+        <v>45669.609236111108</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B223" s="9">
+        <v>45671.485821759263</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G209" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/input/participation_agreement_status.xlsx
+++ b/data/input/participation_agreement_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RobertSurridge\Projects\reach_pa_upload\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EDE03C-34AA-4B5F-A1BD-C5C771F1F7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECD714D-8DE1-4A47-9474-B13BC1522AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="222">
   <si>
     <t>060160925022002</t>
   </si>
@@ -760,6 +760,27 @@
   </si>
   <si>
     <t>280000000009301</t>
+  </si>
+  <si>
+    <t>560990860052007</t>
+  </si>
+  <si>
+    <t>390550610253004</t>
+  </si>
+  <si>
+    <t>350590050262001</t>
+  </si>
+  <si>
+    <t>480723100160001</t>
+  </si>
+  <si>
+    <t>350500020262002</t>
+  </si>
+  <si>
+    <t>480721500251015</t>
+  </si>
+  <si>
+    <t>09010004X100000</t>
   </si>
 </sst>
 </file>
@@ -1071,11 +1092,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B223"/>
+  <dimension ref="A1:B230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A224" sqref="A224"/>
+      <selection pane="bottomLeft" activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2861,12 +2882,68 @@
         <v>45669.609236111108</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>214</v>
       </c>
       <c r="B223" s="9">
         <v>45671.485821759263</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B224" s="5">
+        <v>45680.349710648145</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B225" s="5">
+        <v>45681.353032407409</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B226" s="9">
+        <v>45684.438819444447</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B227" s="5">
+        <v>45685.536886574075</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B228" s="5">
+        <v>45685.58011574074</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B229" s="5">
+        <v>45687.35255787037</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B230" s="9">
+        <v>45687.389756944445</v>
       </c>
     </row>
   </sheetData>
